--- a/OT2_scripts/qPCRSetup/qpcr_layouts.xlsx
+++ b/OT2_scripts/qPCRSetup/qpcr_layouts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbisanz/bisanzlab/github/OHMC_Colaboratory/OT2_scripts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbisanz/bisanzlab/github/OHMC_Colaboratory/OT2_scripts/qPCRSetup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9121167-464A-AF43-AD7E-3CE8254B451C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E244B92B-D9E1-9C47-89A2-324F3FBD0FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="21580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="96_to_384_SideBySide" sheetId="7" r:id="rId1"/>
@@ -647,7 +647,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -670,9 +670,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1127,7 +1124,7 @@
   <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1220,73 +1217,73 @@
       <c r="B2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="U2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="W2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="X2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Y2" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1303,31 +1300,31 @@
       <c r="D3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="7" t="s">
         <v>29</v>
       </c>
       <c r="N3" s="8"/>
@@ -1339,13 +1336,13 @@
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
-      <c r="W3" s="10" t="s">
+      <c r="W3" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="X3" s="10" t="s">
+      <c r="X3" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="Y3" s="10" t="s">
+      <c r="Y3" s="7" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1356,73 +1353,73 @@
       <c r="B4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="Q4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="R4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="S4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="T4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="U4" s="10" t="s">
+      <c r="U4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="V4" s="10" t="s">
+      <c r="V4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="W4" s="10" t="s">
+      <c r="W4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="X4" s="10" t="s">
+      <c r="X4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="Y4" s="10" t="s">
+      <c r="Y4" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1433,37 +1430,37 @@
       <c r="B5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="7" t="s">
         <v>47</v>
       </c>
       <c r="N5" s="8"/>
@@ -1475,13 +1472,13 @@
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
-      <c r="W5" s="10" t="s">
+      <c r="W5" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="X5" s="10" t="s">
+      <c r="X5" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="Y5" s="10" t="s">
+      <c r="Y5" s="7" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1492,73 +1489,73 @@
       <c r="B6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="Q6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="R6" s="10" t="s">
+      <c r="R6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="S6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="T6" s="10" t="s">
+      <c r="T6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="U6" s="10" t="s">
+      <c r="U6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="V6" s="10" t="s">
+      <c r="V6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="W6" s="10" t="s">
+      <c r="W6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="X6" s="10" t="s">
+      <c r="X6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="Y6" s="10" t="s">
+      <c r="Y6" s="7" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1569,37 +1566,37 @@
       <c r="B7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="7" t="s">
         <v>58</v>
       </c>
       <c r="N7" s="8"/>
@@ -1611,13 +1608,13 @@
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
-      <c r="W7" s="10" t="s">
+      <c r="W7" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="X7" s="10" t="s">
+      <c r="X7" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="Y7" s="10" t="s">
+      <c r="Y7" s="7" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1628,73 +1625,73 @@
       <c r="B8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="N8" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P8" s="10" t="s">
+      <c r="P8" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="Q8" s="10" t="s">
+      <c r="Q8" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="R8" s="10" t="s">
+      <c r="R8" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="S8" s="10" t="s">
+      <c r="S8" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="T8" s="10" t="s">
+      <c r="T8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="U8" s="10" t="s">
+      <c r="U8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="V8" s="10" t="s">
+      <c r="V8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="W8" s="10" t="s">
+      <c r="W8" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="X8" s="10" t="s">
+      <c r="X8" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="Y8" s="10" t="s">
+      <c r="Y8" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1705,37 +1702,37 @@
       <c r="B9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="M9" s="7" t="s">
         <v>69</v>
       </c>
       <c r="N9" s="8"/>
@@ -1747,13 +1744,13 @@
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
-      <c r="W9" s="10" t="s">
+      <c r="W9" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="X9" s="10" t="s">
+      <c r="X9" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="Y9" s="10" t="s">
+      <c r="Y9" s="7" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1761,76 +1758,76 @@
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="M10" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="N10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="O10" s="10" t="s">
+      <c r="O10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P10" s="10" t="s">
+      <c r="P10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="Q10" s="10" t="s">
+      <c r="Q10" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="R10" s="10" t="s">
+      <c r="R10" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="S10" s="10" t="s">
+      <c r="S10" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="T10" s="10" t="s">
+      <c r="T10" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="U10" s="10" t="s">
+      <c r="U10" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="V10" s="10" t="s">
+      <c r="V10" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="W10" s="10" t="s">
+      <c r="W10" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="X10" s="10" t="s">
+      <c r="X10" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="Y10" s="10" t="s">
+      <c r="Y10" s="7" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1838,40 +1835,40 @@
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="M11" s="10" t="s">
+      <c r="M11" s="7" t="s">
         <v>80</v>
       </c>
       <c r="N11" s="8"/>
@@ -1883,13 +1880,13 @@
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
-      <c r="W11" s="10" t="s">
+      <c r="W11" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="X11" s="10" t="s">
+      <c r="X11" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="Y11" s="10" t="s">
+      <c r="Y11" s="7" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1897,76 +1894,76 @@
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="M12" s="10" t="s">
+      <c r="M12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="N12" s="10" t="s">
+      <c r="N12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="O12" s="10" t="s">
+      <c r="O12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P12" s="10" t="s">
+      <c r="P12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q12" s="10" t="s">
+      <c r="Q12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="R12" s="10" t="s">
+      <c r="R12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="S12" s="10" t="s">
+      <c r="S12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="T12" s="10" t="s">
+      <c r="T12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="U12" s="10" t="s">
+      <c r="U12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="V12" s="10" t="s">
+      <c r="V12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="W12" s="10" t="s">
+      <c r="W12" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="X12" s="10" t="s">
+      <c r="X12" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="Y12" s="10" t="s">
+      <c r="Y12" s="7" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1974,40 +1971,40 @@
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M13" s="7" t="s">
         <v>91</v>
       </c>
       <c r="N13" s="8"/>
@@ -2019,13 +2016,13 @@
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
-      <c r="W13" s="10" t="s">
+      <c r="W13" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="X13" s="10" t="s">
+      <c r="X13" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="Y13" s="10" t="s">
+      <c r="Y13" s="7" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2033,76 +2030,76 @@
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M14" s="10" t="s">
+      <c r="M14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="N14" s="10" t="s">
+      <c r="N14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="O14" s="10" t="s">
+      <c r="O14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="10" t="s">
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="Q14" s="10" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="R14" s="10" t="s">
+      <c r="R14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="S14" s="10" t="s">
+      <c r="S14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="T14" s="10" t="s">
+      <c r="T14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="U14" s="10" t="s">
+      <c r="U14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="V14" s="10" t="s">
+      <c r="V14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="W14" s="10" t="s">
+      <c r="W14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="X14" s="10" t="s">
+      <c r="X14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="Y14" s="10" t="s">
+      <c r="Y14" s="7" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2110,40 +2107,40 @@
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="K15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="M15" s="7" t="s">
         <v>102</v>
       </c>
       <c r="N15" s="8"/>
@@ -2155,13 +2152,13 @@
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
-      <c r="W15" s="10" t="s">
+      <c r="W15" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="X15" s="10" t="s">
+      <c r="X15" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="Y15" s="10" t="s">
+      <c r="Y15" s="7" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2169,76 +2166,76 @@
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="L16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="M16" s="10" t="s">
+      <c r="M16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="N16" s="10" t="s">
+      <c r="N16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="O16" s="10" t="s">
+      <c r="O16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P16" s="10" t="s">
+      <c r="P16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="Q16" s="10" t="s">
+      <c r="Q16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="R16" s="10" t="s">
+      <c r="R16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="S16" s="10" t="s">
+      <c r="S16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="T16" s="10" t="s">
+      <c r="T16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="U16" s="10" t="s">
+      <c r="U16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="V16" s="10" t="s">
+      <c r="V16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="W16" s="10" t="s">
+      <c r="W16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="X16" s="10" t="s">
+      <c r="X16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="Y16" s="10" t="s">
+      <c r="Y16" s="7" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2246,40 +2243,40 @@
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="K17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="L17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="M17" s="10" t="s">
+      <c r="M17" s="7" t="s">
         <v>113</v>
       </c>
       <c r="N17" s="8"/>
@@ -2291,13 +2288,13 @@
       <c r="T17" s="8"/>
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
-      <c r="W17" s="10" t="s">
+      <c r="W17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="X17" s="10" t="s">
+      <c r="X17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="Y17" s="10" t="s">
+      <c r="Y17" s="7" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2315,7 +2312,7 @@
   <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
